--- a/sample/organize_data/after/株式会社DEF商事/請求書_株式会社DEF商事様_2020年02月.xlsx
+++ b/sample/organize_data/after/株式会社DEF商事/請求書_株式会社DEF商事様_2020年02月.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisakitano/PycharmProjects/sample/organize_data/before/佐藤/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisakitano/PycharmProjects/sample/organize_data/after/株式会社DEF商事/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676E531-AC6A-204E-BFE5-41965FC63635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55187F3-416C-6F4A-9EF4-3A667F0F58B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,10 +99,6 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
-    <t>日付 2020/02</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
     <t>株式会社DEF商事</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">カブシキカイシャ </t>
@@ -111,6 +107,10 @@
   </si>
   <si>
     <t>請求書 #105</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
+    <t>日付 2020/02</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1162,12 +1162,12 @@
   <sheetData>
     <row r="1" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
     </row>
     <row r="5" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/sample/organize_data/after/株式会社DEF商事/請求書_株式会社DEF商事様_2020年02月.xlsx
+++ b/sample/organize_data/after/株式会社DEF商事/請求書_株式会社DEF商事様_2020年02月.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisakitano/PycharmProjects/sample/organize_data/after/株式会社DEF商事/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katsuhisakitano/PycharmProjects/sample/organize_data/before/佐藤/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E55187F3-416C-6F4A-9EF4-3A667F0F58B5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5676E531-AC6A-204E-BFE5-41965FC63635}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -99,6 +99,10 @@
     <phoneticPr fontId="17"/>
   </si>
   <si>
+    <t>日付 2020/02</t>
+    <phoneticPr fontId="17"/>
+  </si>
+  <si>
     <t>株式会社DEF商事</t>
     <rPh sb="0" eb="4">
       <t xml:space="preserve">カブシキカイシャ </t>
@@ -107,10 +111,6 @@
   </si>
   <si>
     <t>請求書 #105</t>
-    <phoneticPr fontId="17"/>
-  </si>
-  <si>
-    <t>日付 2020/02</t>
     <phoneticPr fontId="17"/>
   </si>
 </sst>
@@ -1162,12 +1162,12 @@
   <sheetData>
     <row r="1" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="2:3" ht="50" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:3" ht="34" x14ac:dyDescent="0.2">
@@ -1182,7 +1182,7 @@
     </row>
     <row r="5" spans="2:3" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
